--- a/long_trajectory/results/overall_results.xlsx
+++ b/long_trajectory/results/overall_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitanshjain/Documents/Projects/Shopper_Intent_Prediction/shopper-intent-prediction/long_trajectory/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A42569E-0B4B-D14E-B35E-8F10AC01B335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19971722-0A02-3F4F-B207-646FE6F72709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overall_results" sheetId="1" r:id="rId1"/>
+    <sheet name="pivot_table" sheetId="2" r:id="rId1"/>
+    <sheet name="overall_results" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="26">
   <si>
     <t>samples</t>
   </si>
@@ -78,11 +82,32 @@
   <si>
     <t>xgbc</t>
   </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Average of mi_f1_score</t>
+  </si>
+  <si>
+    <t>Average of mrmr_f1_score</t>
+  </si>
+  <si>
+    <t>Average of mi_mrmr_f1_score</t>
+  </si>
+  <si>
+    <t>Average of pca_f1_score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -560,8 +585,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -618,6 +648,4298 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nitansh Jain" refreshedDate="45110.0835681713" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="240" xr:uid="{95DB58CC-FB06-824E-AFCF-6B9228A2A9B8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="samples" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10" count="10">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="models" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="percentiles" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="90" count="6">
+        <n v="10"/>
+        <n v="20"/>
+        <n v="30"/>
+        <n v="50"/>
+        <n v="75"/>
+        <n v="90"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="mi_accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.73557692307692302" maxValue="0.91826923076922995"/>
+    </cacheField>
+    <cacheField name="mi_f1_score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.76394849785407704" maxValue="0.91943127962085303"/>
+    </cacheField>
+    <cacheField name="mi_auc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.73557692307692302" maxValue="0.91826923076922995"/>
+    </cacheField>
+    <cacheField name="mrmr_accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.76442307692307598" maxValue="0.91346153846153799"/>
+    </cacheField>
+    <cacheField name="mrmr_f1_score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.78026905829596405" maxValue="0.91346153846153799"/>
+    </cacheField>
+    <cacheField name="mrmr_auc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.76442307692307698" maxValue="0.91346153846153799"/>
+    </cacheField>
+    <cacheField name="mi_mrmr_accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.75961538461538403" maxValue="0.91346153846153799"/>
+    </cacheField>
+    <cacheField name="mi_mrmr_f1_score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.76635514018691597" maxValue="0.91346153846153799"/>
+    </cacheField>
+    <cacheField name="mi_mrmr_auc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.75961538461538403" maxValue="0.91346153846153799"/>
+    </cacheField>
+    <cacheField name="pca_accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.73557692307692302" maxValue="0.88461538461538403"/>
+    </cacheField>
+    <cacheField name="pca_f1_score" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.74885844748858399" maxValue="0.88349514563106801"/>
+    </cacheField>
+    <cacheField name="pca_auc" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.73557692307692302" maxValue="0.88461538461538403"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="947166565"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="240">
+  <r>
+    <x v="0"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83248730964466999"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.81818181818181801"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78640776699029102"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79024390243902398"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.77884615384615297"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78640776699029102"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82125603864734298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78260869565217395"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.77511961722487999"/>
+    <n v="0.77403846153846101"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.85416666666666596"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.85416666666666596"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.83505154639175205"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.76415094339622602"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.76635514018691597"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.75480769230769196"/>
+    <n v="0.76279069767441798"/>
+    <n v="0.75480769230769196"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78640776699029102"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.77934272300469398"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.76442307692307598"/>
+    <n v="0.76777251184834105"/>
+    <n v="0.76442307692307698"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81407035175879405"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81407035175879405"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78640776699029102"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.8"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78640776699029102"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79411764705882304"/>
+    <n v="0.79807692307692302"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="lr"/>
+    <x v="0"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79411764705882304"/>
+    <n v="0.79807692307692302"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85167464114832503"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85167464114832503"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85427135678391897"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85436893203883502"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87684729064039402"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.8125"/>
+    <n v="0.80788177339901401"/>
+    <n v="0.812499999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83870967741935398"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.8125"/>
+    <n v="0.81690140845070403"/>
+    <n v="0.8125"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85454545454545405"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86111111111111105"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.8125"/>
+    <n v="0.809756097560975"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.90232558139534802"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86567164179104406"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.88235294117647001"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.83478260869565202"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83636363636363598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83408071748878898"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.75"/>
+    <n v="0.76576576576576505"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85436893203883502"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.78504672897196204"/>
+    <n v="0.77884615384615297"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85308056872037896"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84905660377358405"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79611650485436802"/>
+    <n v="0.79807692307692302"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85972850678733004"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83105022831050201"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.8125"/>
+    <n v="0.82191780821917804"/>
+    <n v="0.8125"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.78301886792452802"/>
+    <n v="0.77884615384615297"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="rfc"/>
+    <x v="0"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88038277511961704"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.841584158415841"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87081339712918604"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82296650717703301"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81951219512195095"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.8"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.81105990783410098"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80542986425339302"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.81278538812785295"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.81447963800904899"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.8125"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.875"/>
+    <n v="0.87128712871287095"/>
+    <n v="0.875"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.73557692307692302"/>
+    <n v="0.76394849785407704"/>
+    <n v="0.73557692307692302"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.798165137614678"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.78947368421052599"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.77678571428571397"/>
+    <n v="0.75961538461538403"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81481481481481399"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.8125"/>
+    <n v="0.81860465116279002"/>
+    <n v="0.8125"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.79638009049773695"/>
+    <n v="0.78365384615384603"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80555555555555503"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80751173708920199"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81481481481481399"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="svc"/>
+    <x v="0"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.837209302325581"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83495145631067902"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84112149532710201"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83582089552238803"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.8125"/>
+    <n v="0.81339712918660201"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84848484848484795"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85294117647058798"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86432160804020097"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85581395348837197"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83018867924528295"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83018867924528295"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80952380952380898"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84507042253521103"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87562189054726303"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84263959390862897"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86567164179104406"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.81632653061224403"/>
+    <n v="0.82692307692307598"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.8125"/>
+    <n v="0.82511210762331799"/>
+    <n v="0.8125"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81651376146788901"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.73557692307692302"/>
+    <n v="0.74885844748858399"/>
+    <n v="0.73557692307692302"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86666666666666603"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.866995073891625"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.78301886792452802"/>
+    <n v="0.77884615384615297"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.88679245283018804"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86915887850467199"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80568720379146896"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82949308755760298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81481481481481399"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78048780487804803"/>
+    <n v="0.78365384615384603"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="xgbc"/>
+    <x v="0"/>
+    <n v="0.875"/>
+    <n v="0.875"/>
+    <n v="0.875"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84422110552763796"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.875"/>
+    <n v="0.87619047619047596"/>
+    <n v="0.875"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78048780487804803"/>
+    <n v="0.78365384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82352941176470495"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82758620689655105"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.8125"/>
+    <n v="0.80788177339901401"/>
+    <n v="0.812499999999999"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79411764705882304"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.84816753926701505"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84848484848484795"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.84816753926701505"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84422110552763796"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78873239436619702"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79245283018867896"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79439252336448596"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.8"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79047619047619"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78672985781990501"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79047619047619"/>
+    <n v="0.78846153846153799"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.8125"/>
+    <n v="0.809756097560975"/>
+    <n v="0.8125"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79411764705882304"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="lr"/>
+    <x v="1"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85849056603773499"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87203791469194303"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86666666666666603"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87922705314009597"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.88888888888888795"/>
+    <n v="0.88942307692307698"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81407035175879405"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85981308411214896"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86255924170616105"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84761904761904705"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87155963302752204"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86363636363636298"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.88995215311004705"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89756097560975601"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.90731707317073096"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83582089552238803"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83486238532110102"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84684684684684597"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83636363636363598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80751173708920199"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87037037037037002"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87557603686635899"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86915887850467199"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87557603686635899"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84304932735425997"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84931506849314997"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86238532110091703"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79611650485436802"/>
+    <n v="0.79807692307692302"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="rfc"/>
+    <x v="1"/>
+    <n v="0.875"/>
+    <n v="0.87619047619047596"/>
+    <n v="0.875"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.866995073891625"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.875"/>
+    <n v="0.87128712871287095"/>
+    <n v="0.875"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79396984924623104"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82125603864734298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81651376146788901"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81481481481481399"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81481481481481399"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82242990654205606"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82568807339449501"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.8125"/>
+    <n v="0.82191780821917804"/>
+    <n v="0.8125"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86138613861386104"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85148514851485102"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.77477477477477397"/>
+    <n v="0.75961538461538403"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.78571428571428503"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.76442307692307598"/>
+    <n v="0.78026905829596405"/>
+    <n v="0.76442307692307698"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.79646017699115002"/>
+    <n v="0.77884615384615297"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79439252336448596"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82407407407407396"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.81105990783410098"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.8125"/>
+    <n v="0.82027649769585198"/>
+    <n v="0.8125"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81308411214953202"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="svc"/>
+    <x v="1"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83495145631067902"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85853658536585298"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88038277511961704"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83902439024390196"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86567164179104406"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.875"/>
+    <n v="0.87254901960784303"/>
+    <n v="0.875"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82653061224489799"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85436893203883502"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85167464114832503"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80751173708920199"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86792452830188604"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89622641509433898"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.875"/>
+    <n v="0.87254901960784303"/>
+    <n v="0.875"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89523809523809506"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82949308755760298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83018867924528295"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83870967741935398"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.8125"/>
+    <n v="0.82191780821917804"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85581395348837197"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81132075471698095"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86255924170616105"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86666666666666603"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83743842364531995"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83105022831050201"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84792626728110598"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84905660377358405"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79601990049751203"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="xgbc"/>
+    <x v="1"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81188118811881105"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81188118811881105"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82758620689655105"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84263959390862897"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84848484848484795"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84848484848484795"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79245283018867896"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78873239436619702"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78672985781990501"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.77934272300469398"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80198019801980203"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="lr"/>
+    <x v="2"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85849056603773499"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86666666666666603"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.88349514563106801"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.866995073891625"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.88679245283018804"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.798029556650246"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85981308411214896"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83870967741935398"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85981308411214896"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.875"/>
+    <n v="0.87962962962962898"/>
+    <n v="0.874999999999999"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85046728971962604"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.90384615384615297"/>
+    <n v="0.90384615384615297"/>
+    <n v="0.90384615384615297"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87804878048780499"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86829268292682904"/>
+    <n v="0.87019230769230704"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82727272727272705"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.841628959276018"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.8125"/>
+    <n v="0.82191780821917804"/>
+    <n v="0.8125"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.875"/>
+    <n v="0.88073394495412805"/>
+    <n v="0.874999999999999"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87441860465116195"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87155963302752204"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.8125"/>
+    <n v="0.82027649769585198"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.89400921658986099"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87272727272727202"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87441860465116195"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86407766990291202"/>
+    <n v="0.86538461538461497"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85201793721973096"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84684684684684597"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.841628959276018"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80952380952380898"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="rfc"/>
+    <x v="2"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.88780487804878006"/>
+    <n v="0.88942307692307698"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81188118811881105"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82125603864734298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82926829268292601"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83168316831683098"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.8125"/>
+    <n v="0.81860465116279002"/>
+    <n v="0.8125"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80930232558139503"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82242990654205606"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83177570093457898"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83018867924528295"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.78923766816143404"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.76442307692307598"/>
+    <n v="0.78026905829596405"/>
+    <n v="0.76442307692307698"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.78571428571428503"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80717488789237601"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80555555555555503"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80188679245283001"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85436893203883502"/>
+    <n v="0.85576923076922995"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80568720379146896"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81308411214953202"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="svc"/>
+    <x v="2"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.875"/>
+    <n v="0.87619047619047596"/>
+    <n v="0.875"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.88571428571428501"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85294117647058798"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84729064039408797"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87804878048780499"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81218274111675104"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83177570093457898"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82464454976303303"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.91826923076922995"/>
+    <n v="0.91943127962085303"/>
+    <n v="0.91826923076922995"/>
+    <n v="0.875"/>
+    <n v="0.87254901960784303"/>
+    <n v="0.875"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86829268292682904"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85148514851485102"/>
+    <n v="0.85576923076922995"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.837209302325581"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80188679245283001"/>
+    <n v="0.79807692307692302"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85308056872037896"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86666666666666603"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82296650717703301"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88372093023255804"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86829268292682904"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80188679245283001"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83870967741935398"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.8125"/>
+    <n v="0.80788177339901401"/>
+    <n v="0.812499999999999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="xgbc"/>
+    <x v="2"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84729064039408797"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86274509803921495"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86407766990291202"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81188118811881105"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82352941176470495"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83582089552238803"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80392156862745101"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.8125"/>
+    <n v="0.809756097560975"/>
+    <n v="0.8125"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84693877551020402"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84263959390862897"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84693877551020402"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79047619047619"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.8125"/>
+    <n v="0.81159420289855"/>
+    <n v="0.8125"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81951219512195095"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81951219512195095"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.8125"/>
+    <n v="0.809756097560975"/>
+    <n v="0.8125"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="lr"/>
+    <x v="3"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82758620689655105"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82758620689655105"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85849056603773499"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87684729064039402"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.90047393364928896"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86915887850467199"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85849056603773499"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85581395348837197"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86915887850467199"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86635944700460799"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84507042253521103"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89320388349514501"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.91346153846153799"/>
+    <n v="0.91346153846153799"/>
+    <n v="0.91346153846153799"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89952153110047794"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86407766990291202"/>
+    <n v="0.86538461538461497"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84545454545454501"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85201793721973096"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85454545454545405"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83870967741935398"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86635944700460799"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.875"/>
+    <n v="0.88073394495412805"/>
+    <n v="0.874999999999999"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84403669724770602"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.885844748858447"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86635944700460799"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.875"/>
+    <n v="0.87962962962962898"/>
+    <n v="0.874999999999999"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83408071748878898"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86607142857142805"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.86098654708520095"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83568075117370899"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="rfc"/>
+    <x v="3"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86829268292682904"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87684729064039402"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82125603864734298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82926829268292601"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82926829268292601"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82926829268292601"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83168316831683098"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82242990654205606"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.837209302325581"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82949308755760298"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.78923766816143404"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.78571428571428503"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.78571428571428503"/>
+    <n v="0.76923076923076905"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80717488789237601"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80555555555555503"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79629629629629595"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.79069767441860395"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80568720379146896"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8125"/>
+    <n v="0.81690140845070403"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="svc"/>
+    <x v="3"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82296650717703301"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83495145631067902"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83495145631067902"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.875"/>
+    <n v="0.87254901960784303"/>
+    <n v="0.875"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.866995073891625"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.875"/>
+    <n v="0.87128712871287095"/>
+    <n v="0.875"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84878048780487803"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85046728971962604"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83495145631067902"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84878048780487803"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85167464114832503"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.88995215311004705"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89655172413793105"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89952153110047794"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86"/>
+    <n v="0.86538461538461497"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85185185185185097"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84792626728110598"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84931506849314997"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.8125"/>
+    <n v="0.81339712918660201"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.863849765258216"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.837209302325581"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85167464114832503"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86255924170616105"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83902439024390196"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83568075117370899"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82464454976303303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84507042253521103"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="xgbc"/>
+    <x v="3"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82828282828282795"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85148514851485102"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85148514851485102"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85308056872037896"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81188118811881105"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79439252336448596"/>
+    <n v="0.78846153846153799"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79812206572769895"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.794258373205741"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.8125"/>
+    <n v="0.81159420289855"/>
+    <n v="0.8125"/>
+    <n v="0.8125"/>
+    <n v="0.81159420289855"/>
+    <n v="0.8125"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79611650485436802"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="lr"/>
+    <x v="4"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81372549019607798"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82352941176470495"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82352941176470495"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.875"/>
+    <n v="0.87850467289719603"/>
+    <n v="0.874999999999999"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85849056603773499"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85849056603773499"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.875"/>
+    <n v="0.87735849056603699"/>
+    <n v="0.875"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87081339712918604"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86635944700460799"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83636363636363598"/>
+    <n v="0.82692307692307598"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86757990867579904"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.88995215311004705"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89952153110047794"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.90995260663507105"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84878048780487803"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83486238532110102"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83486238532110102"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.841628959276018"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83636363636363598"/>
+    <n v="0.82692307692307598"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87441860465116195"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84403669724770602"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.88942307692307598"/>
+    <n v="0.89302325581395303"/>
+    <n v="0.88942307692307698"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86915887850467199"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83928571428571397"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.844444444444444"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.85333333333333306"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.820754716981132"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="rfc"/>
+    <x v="4"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88038277511961704"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86829268292682904"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84761904761904705"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.8125"/>
+    <n v="0.81159420289855"/>
+    <n v="0.8125"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82352941176470495"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83168316831683098"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84112149532710201"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84507042253521103"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83568075117370899"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.837209302325581"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.837209302325581"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84878048780487803"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85853658536585298"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85853658536585298"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.79279279279279202"/>
+    <n v="0.77884615384615297"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.78923766816143404"/>
+    <n v="0.77403846153846101"/>
+    <n v="0.76442307692307598"/>
+    <n v="0.78026905829596405"/>
+    <n v="0.76442307692307698"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80717488789237601"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.8"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.8125"/>
+    <n v="0.81690140845070403"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="svc"/>
+    <x v="4"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81904761904761902"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.838095238095238"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83495145631067902"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87081339712918604"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86274509803921495"/>
+    <n v="0.86538461538461497"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84422110552763796"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87922705314009597"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86274509803921495"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84878048780487803"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84507042253521103"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84761904761904705"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85046728971962604"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85853658536585298"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.90384615384615297"/>
+    <n v="0.90196078431372495"/>
+    <n v="0.90384615384615297"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89756097560975601"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.91346153846153799"/>
+    <n v="0.91346153846153799"/>
+    <n v="0.91346153846153799"/>
+    <n v="0.88461538461538403"/>
+    <n v="0.88349514563106801"/>
+    <n v="0.88461538461538403"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85046728971962604"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84545454545454501"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86915887850467199"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.875"/>
+    <n v="0.87735849056603699"/>
+    <n v="0.875"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83091787439613496"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84112149532710201"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81308411214953202"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81904761904761902"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="xgbc"/>
+    <x v="4"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84761904761904705"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81592039800994998"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82178217821782196"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82587064676616895"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80193236714975802"/>
+    <n v="0.80288461538461497"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85279187817258895"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79999999999999905"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.79620853080568699"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81553398058252402"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="lr"/>
+    <x v="5"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82758620689655105"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82758620689655105"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.81773399014778303"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.863849765258216"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89320388349514501"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87804878048780499"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89756097560975601"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84878048780487803"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86511627906976696"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86111111111111105"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85581395348837197"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.86238532110091703"/>
+    <n v="0.85576923076922995"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85581395348837197"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.839622641509434"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.90995260663507105"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89952153110047794"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.90047393364928896"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85148514851485102"/>
+    <n v="0.85576923076922995"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84018264840182599"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.841628959276018"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84018264840182599"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82882882882882802"/>
+    <n v="0.81730769230769196"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88479262672810999"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.875"/>
+    <n v="0.88073394495412805"/>
+    <n v="0.874999999999999"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84304932735425997"/>
+    <n v="0.83173076923076905"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87557603686635899"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88372093023255804"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.88372093023255804"/>
+    <n v="0.87980769230769196"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86666666666666603"/>
+    <n v="0.86538461538461497"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84684684684684597"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.86098654708520095"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.841628959276018"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82949308755760298"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="rfc"/>
+    <x v="5"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.86124401913875503"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84466019417475702"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84466019417475702"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84057971014492705"/>
+    <n v="0.84134615384615297"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82926829268292601"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82524271844660202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83168316831683098"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83412322274881501"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83568075117370899"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83568075117370899"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82629107981220595"/>
+    <n v="0.82211538461538403"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82790697674418601"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85294117647058798"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85294117647058798"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85294117647058798"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80717488789237601"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.79638009049773695"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.79638009049773695"/>
+    <n v="0.78365384615384603"/>
+    <n v="0.79326923076922995"/>
+    <n v="0.80717488789237601"/>
+    <n v="0.79326923076922995"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80751173708920199"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.79807692307692302"/>
+    <n v="0.80373831775700899"/>
+    <n v="0.79807692307692202"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.83333333333333304"/>
+    <n v="0.82692307692307698"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+    <n v="0.86057692307692302"/>
+    <n v="0.85990338164251201"/>
+    <n v="0.86057692307692302"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.8125"/>
+    <n v="0.81690140845070403"/>
+    <n v="0.8125"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="svc"/>
+    <x v="5"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.81904761904761902"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.82464454976303303"/>
+    <n v="0.82211538461538403"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.83253588516746402"/>
+    <n v="0.83173076923076905"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84313725490196001"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85436893203883502"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86956521739130399"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86138613861386104"/>
+    <n v="0.86538461538461497"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86567164179104406"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.86138613861386104"/>
+    <n v="0.86538461538461497"/>
+    <n v="0.875"/>
+    <n v="0.87254901960784303"/>
+    <n v="0.875"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85294117647058798"/>
+    <n v="0.85576923076922995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84507042253521103"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84905660377358405"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84360189573459698"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85046728971962604"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87081339712918604"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85024154589371903"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.875"/>
+    <n v="0.87619047619047596"/>
+    <n v="0.875"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84210526315789402"/>
+    <n v="0.84134615384615397"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.90995260663507105"/>
+    <n v="0.90865384615384603"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89215686274509798"/>
+    <n v="0.89423076923076905"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.89855072463768104"/>
+    <n v="0.89903846153846101"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85436893203883502"/>
+    <n v="0.85576923076922995"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85446009389671296"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84112149532710201"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.84651162790697598"/>
+    <n v="0.84134615384615297"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.842592592592592"/>
+    <n v="0.83653846153846101"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87323943661971803"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.85308056872037896"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87203791469194303"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.85185185185185097"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.87081339712918604"/>
+    <n v="0.87019230769230704"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85714285714285698"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.875"/>
+    <n v="0.87619047619047596"/>
+    <n v="0.875"/>
+    <n v="0.84615384615384603"/>
+    <n v="0.84905660377358405"/>
+    <n v="0.84615384615384603"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.820754716981132"/>
+    <n v="0.81730769230769196"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.803827751196172"/>
+    <n v="0.80288461538461497"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80952380952380898"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80769230769230704"/>
+    <n v="0.80582524271844602"/>
+    <n v="0.80769230769230704"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="xgbc"/>
+    <x v="5"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.82828282828282795"/>
+    <n v="0.83653846153846101"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85148514851485102"/>
+    <n v="0.85576923076922995"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.84422110552763796"/>
+    <n v="0.85096153846153799"/>
+    <n v="0.82692307692307598"/>
+    <n v="0.82857142857142796"/>
+    <n v="0.82692307692307698"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48255979-8964-D443-A6DF-69372E37408D}" name="PivotTable1" cacheId="3" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Average of mi_f1_score" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of mrmr_f1_score" fld="7" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of mi_mrmr_f1_score" fld="10" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Average of pca_f1_score" fld="13" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2699D9F-5C59-8144-B90D-948E4BA1E8FB}" name="Table1" displayName="Table1" ref="A1:O241" totalsRowShown="0">
+  <autoFilter ref="A1:O241" xr:uid="{B2699D9F-5C59-8144-B90D-948E4BA1E8FB}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{52CFA63E-D128-F540-A19F-2AF935DF7290}" name="samples"/>
+    <tableColumn id="2" xr3:uid="{3620189F-4220-3E41-BF7A-C90D24BE5117}" name="models"/>
+    <tableColumn id="3" xr3:uid="{07F1472B-E72A-1142-95C8-2C8926F03674}" name="percentiles"/>
+    <tableColumn id="4" xr3:uid="{77F56619-66DF-0C49-8016-49DCC9BE3A61}" name="mi_accuracy"/>
+    <tableColumn id="5" xr3:uid="{CCB6B4B6-36BF-0244-9871-E39E52AB4A76}" name="mi_f1_score"/>
+    <tableColumn id="6" xr3:uid="{5FADF10B-2C52-8F49-8545-D8A252AD19CD}" name="mi_auc"/>
+    <tableColumn id="7" xr3:uid="{C187F44F-9AFE-2540-8A4E-8238106E0961}" name="mrmr_accuracy"/>
+    <tableColumn id="8" xr3:uid="{FF52ECC0-A592-7945-BF87-AAD133785B30}" name="mrmr_f1_score"/>
+    <tableColumn id="9" xr3:uid="{E0607E01-FBBF-E042-9B53-F8047A2720D5}" name="mrmr_auc"/>
+    <tableColumn id="10" xr3:uid="{8890AE9A-18AE-4B4E-820A-1833EE680A6F}" name="mi_mrmr_accuracy"/>
+    <tableColumn id="11" xr3:uid="{75C0562C-883F-644F-92F7-0E1D93A5F09B}" name="mi_mrmr_f1_score"/>
+    <tableColumn id="12" xr3:uid="{557DA0A8-4A39-4F4A-BACE-AA01644F7B1A}" name="mi_mrmr_auc"/>
+    <tableColumn id="13" xr3:uid="{38236507-002E-1F4F-9F98-F0FF2EF8A7C9}" name="pca_accuracy"/>
+    <tableColumn id="14" xr3:uid="{7A7C5523-5818-7E41-9426-CC32D219915C}" name="pca_f1_score"/>
+    <tableColumn id="15" xr3:uid="{65DEDFB1-0888-6A4C-8049-A2F945A3790D}" name="pca_auc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -916,12 +5238,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581EF696-4A05-0E4F-83F0-045505B3FEA0}">
+  <dimension ref="A3:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="24" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>75</v>
+      </c>
+      <c r="G4">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.83421647639148111</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.83805753190350674</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.84072358638961275</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.83925373030542638</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.83854492309494932</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.84200497806077779</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.83880020435762503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.82907955026902569</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.83914502484816345</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.83776579874511614</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.84011282555839417</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.84144393231656645</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.83930173994153168</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.83780814527979952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.83228030116078189</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.83766754300317459</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.83718673506917285</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.84161183839688236</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.84152441896786634</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.8413443958889717</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.83860253874780821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.80090402088253398</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.82075353070681434</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.82746634553404097</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.83459001590014847</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.83479364154841185</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.83577057776538877</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.82571302205622277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:O241"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -12252,5 +16749,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>